--- a/excel/dialDataTable_org.zgl.logic.hall.onlineAward.DialDataTable.xlsx
+++ b/excel/dialDataTable_org.zgl.logic.hall.onlineAward.DialDataTable.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameGroup\work\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A6F438D-314A-4B6F-B4A7-65C86C870339}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{7395375C-3D06-4CA5-96C6-18B312A2ED12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -77,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,7 +237,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,21 +431,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6E4B2B-2BAE-42CC-856A-06EAAB161CCE}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
@@ -460,7 +454,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,7 +479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -502,276 +496,208 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>200000</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>49</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>50000</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
